--- a/Team-Data/2012-13/3-5-2012-13.xlsx
+++ b/Team-Data/2012-13/3-5-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -795,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -848,100 +915,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.542</v>
+        <v>0.534</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.346</v>
+        <v>0.341</v>
       </c>
       <c r="O3" t="n">
         <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R3" t="n">
         <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
         <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
@@ -965,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -980,19 +1047,19 @@
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1490,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1502,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
@@ -1678,7 +1745,7 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
@@ -1723,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1881,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
@@ -1890,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.645</v>
+        <v>0.639</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J9" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
         <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O9" t="n">
         <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.4</v>
@@ -1988,10 +2055,10 @@
         <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U9" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
@@ -2006,19 +2073,19 @@
         <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2045,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2069,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2573,7 +2640,7 @@
         <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2597,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2606,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2800,10 +2867,10 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW13" t="n">
         <v>25</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2970,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0.492</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L15" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T15" t="n">
         <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
@@ -3101,16 +3168,16 @@
         <v>18.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
         <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3125,10 +3192,10 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3143,22 +3210,22 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
         <v>16</v>
@@ -3167,10 +3234,10 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3331,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3352,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>2</v>
@@ -3504,7 +3571,7 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3710,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.483</v>
@@ -4336,7 +4403,7 @@
         <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="O22" t="n">
         <v>22.5</v>
@@ -4345,10 +4412,10 @@
         <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.832</v>
+        <v>0.831</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
         <v>32.7</v>
@@ -4360,34 +4427,34 @@
         <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,46 +4755,46 @@
         <v>36.9</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X24" t="n">
         <v>4.8</v>
@@ -4742,13 +4809,13 @@
         <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,7 +4830,7 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4790,10 +4857,10 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4942,7 +5009,7 @@
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4996,7 +5063,7 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
         <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5240,22 +5307,22 @@
         <v>0.442</v>
       </c>
       <c r="L27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
         <v>23.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5267,49 +5334,49 @@
         <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
         <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
         <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
@@ -5318,7 +5385,7 @@
         <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>16</v>
@@ -5351,10 +5418,10 @@
         <v>21</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5363,10 +5430,10 @@
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5855,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5906,13 +5973,13 @@
         <v>23</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6064,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6088,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-5-2012-13</t>
+          <t>2013-03-05</t>
         </is>
       </c>
     </row>
